--- a/190421/colCheck2.xlsx
+++ b/190421/colCheck2.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18255" windowHeight="11160"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="18255" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="不動点ぽいの" sheetId="1" r:id="rId1"/>
     <sheet name="3x+1と3x-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="不動点ぽいの (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="392">
   <si>
     <t>[1]</t>
   </si>
@@ -1325,12 +1327,30 @@
     <t>[(7,10,5)]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[1,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[1,1,1,0,0,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0,1,1,0]</t>
+  </si>
+  <si>
+    <t>[1,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[1,0,1,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,8 +1390,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,8 +1439,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1440,13 +1489,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,11 +1658,121 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2348,6 +2564,786 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="メモ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048499" y="4524375"/>
+          <a:ext cx="4267201" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3x-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の同じ行で、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>に辿り着くものが一つでもあれば、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3x+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>でも</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>に辿り着くか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="上下矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="1438275"/>
+          <a:ext cx="161925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="上下矢印 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="1762125"/>
+          <a:ext cx="180975" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="上下矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973051" y="2828926"/>
+          <a:ext cx="171450" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="上下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696826" y="4200525"/>
+          <a:ext cx="152400" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="上下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12677775" y="2990851"/>
+          <a:ext cx="180975" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="上下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696825" y="6972301"/>
+          <a:ext cx="161925" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="上下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649201" y="9191625"/>
+          <a:ext cx="190500" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="上下矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="8324850"/>
+          <a:ext cx="161925" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="メモ 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="2781300"/>
+          <a:ext cx="4267201" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3x+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3x-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>は順番が逆</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>⇒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>9~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の奇数の区間で、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>コラッツ展開先頭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ビットが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の奇数を、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>コラッツ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3x+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3x-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>で分けあう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1657349</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="左右矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="978379">
+          <a:off x="5229224" y="1581152"/>
+          <a:ext cx="4095750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="左右矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20753074">
+          <a:off x="5153025" y="1609727"/>
+          <a:ext cx="4095750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B6:O70" totalsRowShown="0">
   <autoFilter ref="B6:O70">
@@ -2368,13 +3364,46 @@
     <tableColumn id="12" name="(10進)1x+1"/>
     <tableColumn id="13" name="列2"/>
     <tableColumn id="3" name="3x+1"/>
-    <tableColumn id="9" name="(10進)3x+12" dataDxfId="2"/>
-    <tableColumn id="10" name="列1" dataDxfId="1"/>
+    <tableColumn id="9" name="(10進)3x+12" dataDxfId="7"/>
+    <tableColumn id="10" name="列1" dataDxfId="6"/>
     <tableColumn id="4" name="3x-1"/>
     <tableColumn id="7" name="(10進)3x-12"/>
     <tableColumn id="8" name="列3"/>
-    <tableColumn id="14" name="列4" dataDxfId="0">
+    <tableColumn id="14" name="列4" dataDxfId="5">
       <calculatedColumnFormula>L7-K7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="5x+1"/>
+    <tableColumn id="6" name="(10進)5x+1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="B6:N70" totalsRowShown="0">
+  <autoFilter ref="B6:N70">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
+    <filterColumn colId="12"/>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" name="10進数"/>
+    <tableColumn id="2" name="2進数"/>
+    <tableColumn id="3" name="3x+1"/>
+    <tableColumn id="9" name="(10進)3x+12" dataDxfId="4"/>
+    <tableColumn id="10" name="列1" dataDxfId="2"/>
+    <tableColumn id="4" name="3x-1"/>
+    <tableColumn id="7" name="(10進)3x-12"/>
+    <tableColumn id="12" name="列5" dataDxfId="0"/>
+    <tableColumn id="11" name="列2" dataDxfId="1"/>
+    <tableColumn id="8" name="列3"/>
+    <tableColumn id="14" name="列4" dataDxfId="3">
+      <calculatedColumnFormula>K7-H7</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="5x+1"/>
     <tableColumn id="6" name="(10進)5x+1"/>
@@ -2670,9 +3699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2820,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="21">
-        <f t="shared" ref="M7:M38" si="0">L7-K7</f>
+        <f t="shared" ref="M7:M36" si="0">L7-K7</f>
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -5744,4 +6773,3663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B6:M70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:13">
+      <c r="B6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B7" s="36">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" s="46">
+        <v>85</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="29">
+        <v>21</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B8" s="37">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="41">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="38">
+        <v>35</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="38">
+        <v>35</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="M8" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="38">
+        <v>5</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="29">
+        <v>81</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="46">
+        <v>17</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B10" s="39">
+        <v>7</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="42">
+        <v>7</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="38">
+        <v>23</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="46">
+        <v>23</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="38">
+        <v>9</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="43">
+        <v>13</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="29">
+        <v>93</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="29">
+        <v>29</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="28">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="44">
+        <v>11</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="38">
+        <v>75</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="46">
+        <v>11</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="38">
+        <v>13</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="43">
+        <v>9</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="46">
+        <v>9</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="29">
+        <v>9</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B14" s="39">
+        <v>15</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="42">
+        <v>15</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="46">
+        <v>15</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="38">
+        <v>15</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="38">
+        <v>17</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="38">
+        <v>5</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="29">
+        <v>37</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="29">
+        <v>37</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="28">
+        <v>19</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="44">
+        <v>19</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="38">
+        <v>51</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="38">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="38">
+        <v>21</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" s="29">
+        <v>65</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="46">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="28">
+        <v>23</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="29">
+        <v>7</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" s="46">
+        <v>7</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="38">
+        <v>7</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="38">
+        <v>25</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="38">
+        <v>13</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" s="46">
+        <v>77</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="K19" s="46">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="28">
+        <v>27</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="44">
+        <v>27</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="I20" s="46">
+        <v>123</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="38">
+        <v>59</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="38">
+        <v>29</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="38">
+        <v>25</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="29">
+        <v>89</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="29">
+        <v>25</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B22" s="39">
+        <v>31</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="42">
+        <v>31</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="I22" s="46">
+        <v>95</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="38">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="38">
+        <v>33</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="43">
+        <v>53</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="46">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="28">
+        <v>35</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="29">
+        <v>3</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="38">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="38">
+        <v>37</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="38">
+        <v>49</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="29">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="28">
+        <v>39</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="43">
+        <v>55</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="38">
+        <v>41</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="38">
+        <v>61</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" s="46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="28">
+        <v>43</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="44">
+        <v>43</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="I28" s="46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="38">
+        <v>45</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="38">
+        <v>41</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="28">
+        <v>47</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="44">
+        <v>47</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="38">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="38">
+        <v>49</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="38">
+        <v>5</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="46">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="28">
+        <v>51</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="29">
+        <v>19</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="38">
+        <v>53</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="43">
+        <v>33</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="28">
+        <v>55</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="43">
+        <v>39</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="38">
+        <v>57</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="38">
+        <v>45</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="I35" s="46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="28">
+        <v>59</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="29">
+        <v>27</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="I36" s="46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="38">
+        <v>61</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="38">
+        <v>57</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="14.25" thickBot="1">
+      <c r="B38" s="39">
+        <v>63</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="42">
+        <v>63</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="46">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="38">
+        <v>65</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="28">
+        <v>67</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" s="29">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="38">
+        <v>69</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="28">
+        <v>71</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="43">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="38">
+        <v>73</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="28">
+        <v>75</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="38">
+        <v>77</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="38">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="28">
+        <v>79</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="44">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="38">
+        <v>81</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="38">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="28">
+        <v>83</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="43">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="38">
+        <v>85</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="28">
+        <v>87</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" s="43">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="38">
+        <v>89</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="28">
+        <v>91</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="38">
+        <v>93</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" s="38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="28">
+        <v>95</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="38">
+        <v>97</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" s="43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="28">
+        <v>99</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="38">
+        <v>101</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="38">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="28">
+        <v>103</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="38">
+        <v>105</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="38">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="28">
+        <v>107</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="29">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="38">
+        <v>109</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F61" s="38">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="28">
+        <v>111</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" s="29">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="38">
+        <v>113</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="28">
+        <v>115</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="43">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="38">
+        <v>117</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" s="43">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="28">
+        <v>119</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="38">
+        <v>121</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F67" s="38">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="28">
+        <v>123</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="38">
+        <v>125</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="38">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="40">
+        <v>127</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" s="45">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Q70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="N4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="51">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="50">
+        <v>15</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" ref="L7:L36" si="0">K7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48">
+        <v>3</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J8" s="49">
+        <v>9</v>
+      </c>
+      <c r="K8" s="19">
+        <v>9</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="48">
+        <v>11</v>
+      </c>
+      <c r="K9" s="26">
+        <v>11</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7</v>
+      </c>
+      <c r="F10" s="48">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="48">
+        <f>5+8</f>
+        <v>13</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-2.63524915338707E+18</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="52">
+        <v>9</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="12">
+        <v>13</v>
+      </c>
+      <c r="F11" s="54">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" s="54">
+        <v>7</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7.9057474601612298E+18</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="52">
+        <v>11</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="9">
+        <v>11</v>
+      </c>
+      <c r="F12" s="54">
+        <v>11</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="J12" s="56">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>33</v>
+      </c>
+      <c r="L12" s="25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="52">
+        <v>13</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="12">
+        <v>9</v>
+      </c>
+      <c r="F13" s="54">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="54">
+        <v>3</v>
+      </c>
+      <c r="K13" s="8">
+        <v>-5.2704983067741501E+18</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B14" s="53">
+        <v>15</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="55">
+        <v>15</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="57">
+        <v>5</v>
+      </c>
+      <c r="K14" s="18">
+        <v>133</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="7">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="8">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
+        <v>8.6150890739942902E+18</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="7">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="9">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="8">
+        <v>9</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <v>-2.63524915338707E+18</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="7">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="8">
+        <v>11</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <v>-1.01831073782568E+18</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="7">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="8">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="8">
+        <v>29</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
+        <v>-2.4331318514419E+18</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="7">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="8">
+        <v>13</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="8">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
+        <v>4.30754453699714E+18</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="7">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="9">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="8">
+        <v>17</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
+        <v>7.9057474601612298E+18</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="7">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="8">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="17">
+        <v>3</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17">
+        <v>259</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B22" s="4">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="5">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="6">
+        <v>21</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
+        <v>8.71421666794193E+18</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="7">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="12">
+        <v>53</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="8">
+        <v>31</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
+        <v>-1.21656592572095E+18</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="7">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="8">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <v>-5.2704983067741501E+18</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="7">
+        <v>37</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="8">
+        <v>49</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="8">
+        <v>59</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
+        <v>2.15377226849857E+18</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="7">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="12">
+        <v>55</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="17">
+        <v>13</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17">
+        <v>1037</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="7">
+        <v>41</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="8">
+        <v>61</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="8">
+        <v>7</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8">
+        <v>-2.03662147565137E+18</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="7">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="9">
+        <v>43</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17">
+        <v>129</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="7">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="8">
+        <v>41</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="8">
+        <v>51</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8">
+        <v>-4.8662637028838001E+18</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="7">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="9">
+        <v>47</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="8">
+        <v>37</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
+        <v>-2.63524915338707E+18</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="7">
+        <v>49</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="8">
+        <v>15</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <v>8.6150890739942902E+18</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="7">
+        <v>51</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="8">
+        <v>19</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="8">
+        <v>9</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8">
+        <v>-2.63524915338707E+18</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="7">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="12">
+        <v>33</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="17">
+        <v>11</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17">
+        <v>4235</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="0"/>
+        <v>4224</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="7">
+        <v>55</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="12">
+        <v>39</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="8">
+        <v>29</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
+        <v>-8.1464859026054799E+18</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="7">
+        <v>57</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="8">
+        <v>45</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" s="17">
+        <v>23</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17">
+        <v>1084247</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" si="0"/>
+        <v>1084224</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="7">
+        <v>59</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="8">
+        <v>27</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="17">
+        <v>17</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17">
+        <v>529</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="7">
+        <v>61</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="8">
+        <v>57</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="8">
+        <v>35</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
+        <v>-1.01831073782568E+18</v>
+      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B38" s="4">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="5">
+        <v>63</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="6">
+        <v>21</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
+        <v>7.9057474601612298E+18</v>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N38" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="7">
+        <v>65</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="8">
+        <v>21</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="17">
+        <v>63</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17">
+        <v>33855935</v>
+      </c>
+      <c r="L39" s="25">
+        <f t="shared" ref="L39:L70" si="1">K39-H39</f>
+        <v>33855872</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N39" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="7">
+        <v>67</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="8">
+        <v>99</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="8">
+        <v>57</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8">
+        <v>-2.4331318514419E+18</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="7">
+        <v>69</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="8">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="17">
+        <v>27</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17">
+        <v>16539</v>
+      </c>
+      <c r="L41" s="25">
+        <f t="shared" si="1"/>
+        <v>16512</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N41" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="7">
+        <v>71</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="12">
+        <v>87</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" s="17">
+        <v>45</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17">
+        <v>16941</v>
+      </c>
+      <c r="L42" s="25">
+        <f t="shared" si="1"/>
+        <v>16896</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="7">
+        <v>73</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="8">
+        <v>29</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="8">
+        <v>103</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8">
+        <v>4.30754453699714E+18</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N43" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="7">
+        <v>75</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="8">
+        <v>11</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="8">
+        <v>33</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8">
+        <v>7.9057474601612298E+18</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N44" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="7">
+        <v>77</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="8">
+        <v>73</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" s="17">
+        <v>19</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17">
+        <v>2067</v>
+      </c>
+      <c r="L45" s="25">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="7">
+        <v>79</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="9">
+        <v>79</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" s="17">
+        <v>69</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17">
+        <v>2117</v>
+      </c>
+      <c r="L46" s="25">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N46" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="7">
+        <v>81</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="8">
+        <v>101</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="8">
+        <v>47</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8">
+        <v>-5.2704983067741604E+18</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N47" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="7">
+        <v>83</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="12">
+        <v>115</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="8">
+        <v>41</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8">
+        <v>-4.07324295130274E+18</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="7">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H49" s="17">
+        <v>43</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17">
+        <v>542123</v>
+      </c>
+      <c r="L49" s="25">
+        <f t="shared" si="1"/>
+        <v>542080</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N49" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="7">
+        <v>87</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="12">
+        <v>71</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="17">
+        <v>125</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17">
+        <v>135423741</v>
+      </c>
+      <c r="L50" s="25">
+        <f t="shared" si="1"/>
+        <v>135423616</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N50" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="7">
+        <v>89</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="8">
+        <v>13</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="8">
+        <v>55</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8">
+        <v>-2.63524915338816E+18</v>
+      </c>
+      <c r="L51" s="23"/>
+      <c r="M51" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N51" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="7">
+        <v>91</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="8">
+        <v>59</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="8">
+        <v>113</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
+        <v>8.71421666794193E+18</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N52" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="7">
+        <v>93</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="8">
+        <v>25</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="8">
+        <v>67</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8">
+        <v>-5.2704983067741501E+18</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="M53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="7">
+        <v>95</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="8">
+        <v>31</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H54" s="17">
+        <v>53</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17">
+        <v>67765</v>
+      </c>
+      <c r="L54" s="25">
+        <f t="shared" si="1"/>
+        <v>67712</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N54" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="7">
+        <v>97</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="12">
+        <v>117</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H55" s="17">
+        <v>95</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17">
+        <v>16927967</v>
+      </c>
+      <c r="L55" s="25">
+        <f t="shared" si="1"/>
+        <v>16927872</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N55" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="7">
+        <v>99</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="8">
+        <v>3</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="8">
+        <v>89</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8">
+        <v>-1.21656592572095E+18</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N56" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="7">
+        <v>101</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="8">
+        <v>49</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" s="17">
+        <v>123</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17">
+        <v>17347707</v>
+      </c>
+      <c r="L57" s="25">
+        <f t="shared" si="1"/>
+        <v>17347584</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N57" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="7">
+        <v>103</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="8">
+        <v>119</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H58" s="17">
+        <v>77</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17">
+        <v>8269</v>
+      </c>
+      <c r="L58" s="25">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N58" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="7">
+        <v>105</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="8">
+        <v>61</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H59" s="17">
+        <v>7</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17">
+        <v>8455</v>
+      </c>
+      <c r="L59" s="25">
+        <f t="shared" si="1"/>
+        <v>8448</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N59" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="7">
+        <v>107</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" s="8">
+        <v>107</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" s="8">
+        <v>65</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
+        <v>-5.2704983067741501E+18</v>
+      </c>
+      <c r="L60" s="23"/>
+      <c r="M60" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="N60" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="7">
+        <v>109</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" s="8">
+        <v>105</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="8">
+        <v>51</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8">
+        <v>2.15377226849857E+18</v>
+      </c>
+      <c r="L61" s="23"/>
+      <c r="M61" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N61" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="7">
+        <v>111</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="8">
+        <v>111</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H62" s="8">
+        <v>37</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8">
+        <v>2.15377226849857E+18</v>
+      </c>
+      <c r="L62" s="23"/>
+      <c r="M62" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="N62" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="7">
+        <v>113</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E63" s="8">
+        <v>5</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H63" s="17">
+        <v>15</v>
+      </c>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17">
+        <v>2168463</v>
+      </c>
+      <c r="L63" s="25">
+        <f t="shared" si="1"/>
+        <v>2168448</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N63" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="7">
+        <v>115</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" s="12">
+        <v>83</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="17">
+        <v>9</v>
+      </c>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17">
+        <v>1033</v>
+      </c>
+      <c r="L64" s="25">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="N64" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="7">
+        <v>117</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="12">
+        <v>97</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H65" s="8">
+        <v>75</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8">
+        <v>-2.03662147565137E+18</v>
+      </c>
+      <c r="L65" s="23"/>
+      <c r="M65" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="N65" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="7">
+        <v>119</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" s="8">
+        <v>39</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H66" s="8">
+        <v>93</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8">
+        <v>7.9057474601568799E+18</v>
+      </c>
+      <c r="L66" s="23"/>
+      <c r="M66" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="N66" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="7">
+        <v>121</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E67" s="8">
+        <v>109</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H67" s="8">
+        <v>23</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8">
+        <v>-2.6352491533870802E+18</v>
+      </c>
+      <c r="L67" s="23"/>
+      <c r="M67" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="N67" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="7">
+        <v>123</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" s="8">
+        <v>91</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H68" s="8">
+        <v>81</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8">
+        <v>-2.03662147565137E+18</v>
+      </c>
+      <c r="L68" s="23"/>
+      <c r="M68" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N68" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="7">
+        <v>125</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" s="8">
+        <v>121</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" s="8">
+        <v>35</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8">
+        <v>-2.6352491533870802E+18</v>
+      </c>
+      <c r="L69" s="23"/>
+      <c r="M69" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="N69" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="7">
+        <v>127</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="13">
+        <v>127</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H70" s="17">
+        <v>85</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17">
+        <v>271061</v>
+      </c>
+      <c r="L70" s="25">
+        <f t="shared" si="1"/>
+        <v>270976</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="N70" s="12">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>